--- a/natmiOut/OldD7/LR-pairs_lrc2p/Tnc-Ptprz1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Tnc-Ptprz1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,185 +522,743 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.85906889985593</v>
+        <v>8.948174</v>
       </c>
       <c r="H2">
-        <v>2.85906889985593</v>
+        <v>26.844522</v>
       </c>
       <c r="I2">
-        <v>0.02445072817775627</v>
+        <v>0.0695931738232498</v>
       </c>
       <c r="J2">
-        <v>0.02445072817775627</v>
+        <v>0.0695931738232498</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.28138215775053</v>
+        <v>0.096771</v>
       </c>
       <c r="N2">
-        <v>1.28138215775053</v>
+        <v>0.290313</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.02354936372111631</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.02354936372111631</v>
       </c>
       <c r="Q2">
-        <v>3.663559876054825</v>
+        <v>0.8659237461539999</v>
       </c>
       <c r="R2">
-        <v>3.663559876054825</v>
+        <v>7.793313715385999</v>
       </c>
       <c r="S2">
-        <v>0.02445072817775627</v>
+        <v>0.00163887496287058</v>
       </c>
       <c r="T2">
-        <v>0.02445072817775627</v>
+        <v>0.00163887496287058</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>104.284893408821</v>
+        <v>8.948174</v>
       </c>
       <c r="H3">
-        <v>104.284893408821</v>
+        <v>26.844522</v>
       </c>
       <c r="I3">
-        <v>0.8918433486908471</v>
+        <v>0.0695931738232498</v>
       </c>
       <c r="J3">
-        <v>0.8918433486908471</v>
+        <v>0.0695931738232498</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>1.28138215775053</v>
+        <v>0.05416133333333333</v>
       </c>
       <c r="N3">
-        <v>1.28138215775053</v>
+        <v>0.162484</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.01318023931019921</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.01318023931019921</v>
       </c>
       <c r="Q3">
-        <v>133.6288017369791</v>
+        <v>0.4846450347386667</v>
       </c>
       <c r="R3">
-        <v>133.6288017369791</v>
+        <v>4.361805312647999</v>
       </c>
       <c r="S3">
-        <v>0.8918433486908471</v>
+        <v>0.0009172546853467237</v>
       </c>
       <c r="T3">
-        <v>0.8918433486908471</v>
+        <v>0.0009172546853467234</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>8.948174</v>
+      </c>
+      <c r="H4">
+        <v>26.844522</v>
+      </c>
+      <c r="I4">
+        <v>0.0695931738232498</v>
+      </c>
+      <c r="J4">
+        <v>0.0695931738232498</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>3.958350666666666</v>
+      </c>
+      <c r="N4">
+        <v>11.875052</v>
+      </c>
+      <c r="O4">
+        <v>0.9632703969686844</v>
+      </c>
+      <c r="P4">
+        <v>0.9632703969686844</v>
+      </c>
+      <c r="Q4">
+        <v>35.42001051834933</v>
+      </c>
+      <c r="R4">
+        <v>318.7800946651439</v>
+      </c>
+      <c r="S4">
+        <v>0.06703704417503249</v>
+      </c>
+      <c r="T4">
+        <v>0.06703704417503249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>105.8801323333333</v>
+      </c>
+      <c r="H5">
+        <v>317.640397</v>
+      </c>
+      <c r="I5">
+        <v>0.8234679448457706</v>
+      </c>
+      <c r="J5">
+        <v>0.8234679448457706</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.096771</v>
+      </c>
+      <c r="N5">
+        <v>0.290313</v>
+      </c>
+      <c r="O5">
+        <v>0.02354936372111631</v>
+      </c>
+      <c r="P5">
+        <v>0.02354936372111631</v>
+      </c>
+      <c r="Q5">
+        <v>10.246126286029</v>
+      </c>
+      <c r="R5">
+        <v>92.215136574261</v>
+      </c>
+      <c r="S5">
+        <v>0.0193921461458532</v>
+      </c>
+      <c r="T5">
+        <v>0.0193921461458532</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>105.8801323333333</v>
+      </c>
+      <c r="H6">
+        <v>317.640397</v>
+      </c>
+      <c r="I6">
+        <v>0.8234679448457706</v>
+      </c>
+      <c r="J6">
+        <v>0.8234679448457706</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.05416133333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.162484</v>
+      </c>
+      <c r="O6">
+        <v>0.01318023931019921</v>
+      </c>
+      <c r="P6">
+        <v>0.01318023931019921</v>
+      </c>
+      <c r="Q6">
+        <v>5.734609140683111</v>
+      </c>
+      <c r="R6">
+        <v>51.61148226614799</v>
+      </c>
+      <c r="S6">
+        <v>0.01085350457734518</v>
+      </c>
+      <c r="T6">
+        <v>0.01085350457734518</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>105.8801323333333</v>
+      </c>
+      <c r="H7">
+        <v>317.640397</v>
+      </c>
+      <c r="I7">
+        <v>0.8234679448457706</v>
+      </c>
+      <c r="J7">
+        <v>0.8234679448457706</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.958350666666666</v>
+      </c>
+      <c r="N7">
+        <v>11.875052</v>
+      </c>
+      <c r="O7">
+        <v>0.9632703969686844</v>
+      </c>
+      <c r="P7">
+        <v>0.9632703969686844</v>
+      </c>
+      <c r="Q7">
+        <v>419.1106924084048</v>
+      </c>
+      <c r="R7">
+        <v>3771.996231675644</v>
+      </c>
+      <c r="S7">
+        <v>0.7932222941225722</v>
+      </c>
+      <c r="T7">
+        <v>0.7932222941225722</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.1148696666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.344609</v>
+      </c>
+      <c r="I8">
+        <v>0.0008933827928862465</v>
+      </c>
+      <c r="J8">
+        <v>0.0008933827928862465</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.096771</v>
+      </c>
+      <c r="N8">
+        <v>0.290313</v>
+      </c>
+      <c r="O8">
+        <v>0.02354936372111631</v>
+      </c>
+      <c r="P8">
+        <v>0.02354936372111631</v>
+      </c>
+      <c r="Q8">
+        <v>0.011116052513</v>
+      </c>
+      <c r="R8">
+        <v>0.100044472617</v>
+      </c>
+      <c r="S8">
+        <v>2.103859633186494E-05</v>
+      </c>
+      <c r="T8">
+        <v>2.103859633186494E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.1148696666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.344609</v>
+      </c>
+      <c r="I9">
+        <v>0.0008933827928862465</v>
+      </c>
+      <c r="J9">
+        <v>0.0008933827928862465</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.05416133333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.162484</v>
+      </c>
+      <c r="O9">
+        <v>0.01318023931019921</v>
+      </c>
+      <c r="P9">
+        <v>0.01318023931019921</v>
+      </c>
+      <c r="Q9">
+        <v>0.006221494306222222</v>
+      </c>
+      <c r="R9">
+        <v>0.05599344875599999</v>
+      </c>
+      <c r="S9">
+        <v>1.177499900585487E-05</v>
+      </c>
+      <c r="T9">
+        <v>1.177499900585486E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.1148696666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.344609</v>
+      </c>
+      <c r="I10">
+        <v>0.0008933827928862465</v>
+      </c>
+      <c r="J10">
+        <v>0.0008933827928862465</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.958350666666666</v>
+      </c>
+      <c r="N10">
+        <v>11.875052</v>
+      </c>
+      <c r="O10">
+        <v>0.9632703969686844</v>
+      </c>
+      <c r="P10">
+        <v>0.9632703969686844</v>
+      </c>
+      <c r="Q10">
+        <v>0.4546944216297777</v>
+      </c>
+      <c r="R10">
+        <v>4.092249794668</v>
+      </c>
+      <c r="S10">
+        <v>0.0008605691975485267</v>
+      </c>
+      <c r="T10">
+        <v>0.0008605691975485267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>9.78788851681016</v>
-      </c>
-      <c r="H4">
-        <v>9.78788851681016</v>
-      </c>
-      <c r="I4">
-        <v>0.08370592313139663</v>
-      </c>
-      <c r="J4">
-        <v>0.08370592313139663</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1.28138215775053</v>
-      </c>
-      <c r="N4">
-        <v>1.28138215775053</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>12.54202570749184</v>
-      </c>
-      <c r="R4">
-        <v>12.54202570749184</v>
-      </c>
-      <c r="S4">
-        <v>0.08370592313139663</v>
-      </c>
-      <c r="T4">
-        <v>0.08370592313139663</v>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>13.635153</v>
+      </c>
+      <c r="H11">
+        <v>40.905459</v>
+      </c>
+      <c r="I11">
+        <v>0.1060454985380935</v>
+      </c>
+      <c r="J11">
+        <v>0.1060454985380935</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.096771</v>
+      </c>
+      <c r="N11">
+        <v>0.290313</v>
+      </c>
+      <c r="O11">
+        <v>0.02354936372111631</v>
+      </c>
+      <c r="P11">
+        <v>0.02354936372111631</v>
+      </c>
+      <c r="Q11">
+        <v>1.319487390963</v>
+      </c>
+      <c r="R11">
+        <v>11.875386518667</v>
+      </c>
+      <c r="S11">
+        <v>0.002497304016060672</v>
+      </c>
+      <c r="T11">
+        <v>0.002497304016060671</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>13.635153</v>
+      </c>
+      <c r="H12">
+        <v>40.905459</v>
+      </c>
+      <c r="I12">
+        <v>0.1060454985380935</v>
+      </c>
+      <c r="J12">
+        <v>0.1060454985380935</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.05416133333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.162484</v>
+      </c>
+      <c r="O12">
+        <v>0.01318023931019921</v>
+      </c>
+      <c r="P12">
+        <v>0.01318023931019921</v>
+      </c>
+      <c r="Q12">
+        <v>0.738498066684</v>
+      </c>
+      <c r="R12">
+        <v>6.646482600155999</v>
+      </c>
+      <c r="S12">
+        <v>0.001397705048501452</v>
+      </c>
+      <c r="T12">
+        <v>0.001397705048501452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>13.635153</v>
+      </c>
+      <c r="H13">
+        <v>40.905459</v>
+      </c>
+      <c r="I13">
+        <v>0.1060454985380935</v>
+      </c>
+      <c r="J13">
+        <v>0.1060454985380935</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.958350666666666</v>
+      </c>
+      <c r="N13">
+        <v>11.875052</v>
+      </c>
+      <c r="O13">
+        <v>0.9632703969686844</v>
+      </c>
+      <c r="P13">
+        <v>0.9632703969686844</v>
+      </c>
+      <c r="Q13">
+        <v>53.972716967652</v>
+      </c>
+      <c r="R13">
+        <v>485.7544527088679</v>
+      </c>
+      <c r="S13">
+        <v>0.1021504894735314</v>
+      </c>
+      <c r="T13">
+        <v>0.1021504894735313</v>
       </c>
     </row>
   </sheetData>
